--- a/Module 3/APPLIDE STATE.xlsx
+++ b/Module 3/APPLIDE STATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6037BC-7F40-4A0D-A00B-6BC3215F1A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A77DA-35CA-4569-80E7-080CD036D7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE2BFBB5-8D63-46DF-A2A4-1702BEEF9BC6}"/>
   </bookViews>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -162,7 +165,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +194,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,10 +257,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,8 +279,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,15 +598,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881BF3B0-4265-473B-807A-39B92DBE8998}">
   <dimension ref="B3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="18" x14ac:dyDescent="0.35">
@@ -659,9 +676,9 @@
       <c r="I9" s="9">
         <v>13000</v>
       </c>
-      <c r="K9" s="3">
-        <f>_xlfn.VAR.P(E9:E20)</f>
-        <v>5713541.666666667</v>
+      <c r="K9" s="13">
+        <f>_xlfn.VAR.P(E9:E20,G9:G20,I9:I20)</f>
+        <v>6170524.6913580243</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -683,10 +700,6 @@
       <c r="I10" s="9">
         <v>15000</v>
       </c>
-      <c r="K10" s="3">
-        <f>_xlfn.VAR.P(G9:G20)</f>
-        <v>7352430.555555556</v>
-      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D11" s="12">
@@ -707,10 +720,6 @@
       <c r="I11" s="9">
         <v>14000</v>
       </c>
-      <c r="K11" s="3">
-        <f>_xlfn.VAR.P(I9:I20)</f>
-        <v>5326388.888888889</v>
-      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" s="12">
@@ -956,9 +965,9 @@
       <c r="I30" s="3">
         <v>179</v>
       </c>
-      <c r="K30" s="3">
-        <f>_xlfn.VAR.S(E30:E37)</f>
-        <v>9.8095238095238084</v>
+      <c r="K30" s="14">
+        <f>_xlfn.VAR.S(E30:E37,G30:G37,I30:I37)</f>
+        <v>9.2619047619047628</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
@@ -980,10 +989,6 @@
       <c r="I31" s="3">
         <v>178</v>
       </c>
-      <c r="K31" s="3">
-        <f>_xlfn.VAR.S(G30:G37)</f>
-        <v>16.285714285714281</v>
-      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D32" s="7" t="s">
@@ -1003,10 +1008,6 @@
       </c>
       <c r="I32" s="3">
         <v>176</v>
-      </c>
-      <c r="K32" s="3">
-        <f>_xlfn.VAR.S(I30:I37)</f>
-        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
